--- a/psaw/excel/little_scales.xlsx
+++ b/psaw/excel/little_scales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\psy-scales-py\psaw\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D7202-E935-4CFC-AEC8-3FB0BDC1758A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2676961-3EB6-4D56-BE41-3C719673B933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8686CA1-67F7-47D5-A5B5-96D69129525C}"/>
   </bookViews>
@@ -106,7 +106,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Exact (or mostly exaxt) phrase from the each of the questionnaires</t>
+Exact (or mostly exact) phrase from the each of the questionnaires</t>
         </r>
       </text>
     </comment>
@@ -186,9 +186,6 @@
     <t>I have been moving or speaking so slowly that other people could have noticed</t>
   </si>
   <si>
-    <t xml:space="preserve">PHQ-9 </t>
-  </si>
-  <si>
     <t>little interest in doing things, no interest in doing things, little pleasure in doing things, no pleasure in doing things</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>Related (code)</t>
+  </si>
+  <si>
+    <t>PHQ-9</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <dimension ref="B2:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,78 +789,78 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -875,7 +875,7 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="9"/>
@@ -883,10 +883,10 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="5"/>
